--- a/Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B770330-96FA-4FD9-837A-E47A63A9404F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MYTAY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>MYTAY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2217400</v>
+        <v>2138000</v>
       </c>
       <c r="E8" s="3">
-        <v>2083700</v>
+        <v>2009100</v>
       </c>
       <c r="F8" s="3">
-        <v>2382500</v>
+        <v>2297200</v>
       </c>
       <c r="G8" s="3">
-        <v>2274000</v>
+        <v>2192600</v>
       </c>
       <c r="H8" s="3">
-        <v>2314200</v>
+        <v>2231300</v>
       </c>
       <c r="I8" s="3">
-        <v>2203900</v>
+        <v>2124900</v>
       </c>
       <c r="J8" s="3">
-        <v>2169300</v>
+        <v>2091700</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1092700</v>
+        <v>1053600</v>
       </c>
       <c r="E9" s="3">
-        <v>961100</v>
+        <v>926700</v>
       </c>
       <c r="F9" s="3">
-        <v>1082400</v>
+        <v>1043700</v>
       </c>
       <c r="G9" s="3">
-        <v>779100</v>
+        <v>751200</v>
       </c>
       <c r="H9" s="3">
-        <v>826800</v>
+        <v>797200</v>
       </c>
       <c r="I9" s="3">
-        <v>704100</v>
+        <v>678900</v>
       </c>
       <c r="J9" s="3">
-        <v>769200</v>
+        <v>741600</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1124700</v>
+        <v>1084400</v>
       </c>
       <c r="E10" s="3">
-        <v>1122600</v>
+        <v>1082400</v>
       </c>
       <c r="F10" s="3">
-        <v>1300100</v>
+        <v>1253500</v>
       </c>
       <c r="G10" s="3">
-        <v>1494900</v>
+        <v>1441300</v>
       </c>
       <c r="H10" s="3">
-        <v>1487400</v>
+        <v>1434100</v>
       </c>
       <c r="I10" s="3">
-        <v>1499700</v>
+        <v>1446000</v>
       </c>
       <c r="J10" s="3">
-        <v>1400200</v>
+        <v>1350000</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +889,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -874,41 +909,41 @@
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>22900</v>
+        <v>22100</v>
       </c>
       <c r="J14" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>392700</v>
+        <v>378600</v>
       </c>
       <c r="E15" s="3">
-        <v>830500</v>
+        <v>800800</v>
       </c>
       <c r="F15" s="3">
-        <v>413000</v>
+        <v>398200</v>
       </c>
       <c r="G15" s="3">
-        <v>365400</v>
+        <v>352300</v>
       </c>
       <c r="H15" s="3">
-        <v>380200</v>
+        <v>366600</v>
       </c>
       <c r="I15" s="3">
-        <v>776100</v>
+        <v>748300</v>
       </c>
       <c r="J15" s="3">
-        <v>482500</v>
+        <v>465200</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1936100</v>
+        <v>1866800</v>
       </c>
       <c r="E17" s="3">
-        <v>1807200</v>
+        <v>1742500</v>
       </c>
       <c r="F17" s="3">
-        <v>2115700</v>
+        <v>2039900</v>
       </c>
       <c r="G17" s="3">
-        <v>1981500</v>
+        <v>1910600</v>
       </c>
       <c r="H17" s="3">
-        <v>2043000</v>
+        <v>1969800</v>
       </c>
       <c r="I17" s="3">
-        <v>1884700</v>
+        <v>1817200</v>
       </c>
       <c r="J17" s="3">
-        <v>1940100</v>
+        <v>1870600</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>281300</v>
+        <v>271200</v>
       </c>
       <c r="E18" s="3">
-        <v>276600</v>
+        <v>266600</v>
       </c>
       <c r="F18" s="3">
-        <v>266900</v>
+        <v>257300</v>
       </c>
       <c r="G18" s="3">
-        <v>292500</v>
+        <v>282000</v>
       </c>
       <c r="H18" s="3">
-        <v>271200</v>
+        <v>261500</v>
       </c>
       <c r="I18" s="3">
-        <v>319200</v>
+        <v>307700</v>
       </c>
       <c r="J18" s="3">
-        <v>229300</v>
+        <v>221100</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-28200</v>
+        <v>-27200</v>
       </c>
       <c r="E20" s="3">
-        <v>-30300</v>
+        <v>-29300</v>
       </c>
       <c r="F20" s="3">
-        <v>-23200</v>
+        <v>-22400</v>
       </c>
       <c r="G20" s="3">
-        <v>-21000</v>
+        <v>-20200</v>
       </c>
       <c r="H20" s="3">
-        <v>-32000</v>
+        <v>-30900</v>
       </c>
       <c r="I20" s="3">
-        <v>-15900</v>
+        <v>-15300</v>
       </c>
       <c r="J20" s="3">
-        <v>-33600</v>
+        <v>-32400</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>645800</v>
+        <v>624800</v>
       </c>
       <c r="E21" s="3">
-        <v>672600</v>
+        <v>650900</v>
       </c>
       <c r="F21" s="3">
-        <v>656700</v>
+        <v>635500</v>
       </c>
       <c r="G21" s="3">
-        <v>636900</v>
+        <v>616100</v>
       </c>
       <c r="H21" s="3">
-        <v>619400</v>
+        <v>599300</v>
       </c>
       <c r="I21" s="3">
-        <v>691300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>678100</v>
+        <v>668700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>49100</v>
+        <v>47300</v>
       </c>
       <c r="E22" s="3">
-        <v>67400</v>
+        <v>65000</v>
       </c>
       <c r="F22" s="3">
-        <v>79100</v>
+        <v>76200</v>
       </c>
       <c r="G22" s="3">
-        <v>82100</v>
+        <v>79200</v>
       </c>
       <c r="H22" s="3">
-        <v>82500</v>
+        <v>79600</v>
       </c>
       <c r="I22" s="3">
-        <v>87900</v>
+        <v>84800</v>
       </c>
       <c r="J22" s="3">
-        <v>84200</v>
+        <v>81100</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>204000</v>
+        <v>196700</v>
       </c>
       <c r="E23" s="3">
-        <v>178800</v>
+        <v>172400</v>
       </c>
       <c r="F23" s="3">
-        <v>164600</v>
+        <v>158700</v>
       </c>
       <c r="G23" s="3">
-        <v>189400</v>
+        <v>182600</v>
       </c>
       <c r="H23" s="3">
-        <v>156700</v>
+        <v>151100</v>
       </c>
       <c r="I23" s="3">
-        <v>215300</v>
+        <v>207600</v>
       </c>
       <c r="J23" s="3">
-        <v>111500</v>
+        <v>107500</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57900</v>
+        <v>55900</v>
       </c>
       <c r="E24" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="F24" s="3">
+        <v>48300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>70500</v>
+      </c>
+      <c r="H24" s="3">
         <v>50100</v>
       </c>
-      <c r="G24" s="3">
-        <v>73100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>51900</v>
-      </c>
       <c r="I24" s="3">
-        <v>48900</v>
+        <v>47100</v>
       </c>
       <c r="J24" s="3">
-        <v>100000</v>
+        <v>96400</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>146100</v>
+        <v>140900</v>
       </c>
       <c r="E26" s="3">
-        <v>196500</v>
+        <v>189400</v>
       </c>
       <c r="F26" s="3">
-        <v>114500</v>
+        <v>110400</v>
       </c>
       <c r="G26" s="3">
-        <v>116200</v>
+        <v>112100</v>
       </c>
       <c r="H26" s="3">
-        <v>104700</v>
+        <v>101000</v>
       </c>
       <c r="I26" s="3">
-        <v>166500</v>
+        <v>160500</v>
       </c>
       <c r="J26" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>135000</v>
+        <v>130200</v>
       </c>
       <c r="E27" s="3">
-        <v>185800</v>
+        <v>179100</v>
       </c>
       <c r="F27" s="3">
-        <v>100600</v>
+        <v>97000</v>
       </c>
       <c r="G27" s="3">
-        <v>103900</v>
+        <v>100100</v>
       </c>
       <c r="H27" s="3">
-        <v>85200</v>
+        <v>82100</v>
       </c>
       <c r="I27" s="3">
-        <v>133800</v>
+        <v>129000</v>
       </c>
       <c r="J27" s="3">
-        <v>-27100</v>
+        <v>-26100</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,15 +1263,15 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>34600</v>
+        <v>33300</v>
       </c>
       <c r="E29" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>28200</v>
+        <v>27200</v>
       </c>
       <c r="E32" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="F32" s="3">
-        <v>23200</v>
+        <v>22400</v>
       </c>
       <c r="G32" s="3">
-        <v>21000</v>
+        <v>20200</v>
       </c>
       <c r="H32" s="3">
-        <v>32000</v>
+        <v>30900</v>
       </c>
       <c r="I32" s="3">
-        <v>15900</v>
+        <v>15300</v>
       </c>
       <c r="J32" s="3">
-        <v>33600</v>
+        <v>32400</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169600</v>
+        <v>163500</v>
       </c>
       <c r="E33" s="3">
-        <v>197000</v>
+        <v>190000</v>
       </c>
       <c r="F33" s="3">
-        <v>100600</v>
+        <v>97000</v>
       </c>
       <c r="G33" s="3">
-        <v>103900</v>
+        <v>100100</v>
       </c>
       <c r="H33" s="3">
-        <v>85200</v>
+        <v>82100</v>
       </c>
       <c r="I33" s="3">
-        <v>133800</v>
+        <v>129000</v>
       </c>
       <c r="J33" s="3">
-        <v>-27100</v>
+        <v>-26100</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169600</v>
+        <v>163500</v>
       </c>
       <c r="E35" s="3">
-        <v>197000</v>
+        <v>190000</v>
       </c>
       <c r="F35" s="3">
-        <v>100600</v>
+        <v>97000</v>
       </c>
       <c r="G35" s="3">
-        <v>103900</v>
+        <v>100100</v>
       </c>
       <c r="H35" s="3">
-        <v>85200</v>
+        <v>82100</v>
       </c>
       <c r="I35" s="3">
-        <v>133800</v>
+        <v>129000</v>
       </c>
       <c r="J35" s="3">
-        <v>-27100</v>
+        <v>-26100</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32400</v>
+        <v>31200</v>
       </c>
       <c r="E41" s="3">
-        <v>42700</v>
+        <v>41100</v>
       </c>
       <c r="F41" s="3">
-        <v>92700</v>
+        <v>89400</v>
       </c>
       <c r="G41" s="3">
-        <v>106900</v>
+        <v>103100</v>
       </c>
       <c r="H41" s="3">
-        <v>138800</v>
+        <v>133800</v>
       </c>
       <c r="I41" s="3">
-        <v>55200</v>
+        <v>53200</v>
       </c>
       <c r="J41" s="3">
-        <v>52500</v>
+        <v>50600</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E42" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F42" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G42" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="H42" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="I42" s="3">
-        <v>190500</v>
+        <v>183700</v>
       </c>
       <c r="J42" s="3">
-        <v>218100</v>
+        <v>210200</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>544300</v>
+        <v>524800</v>
       </c>
       <c r="E43" s="3">
-        <v>558800</v>
+        <v>538800</v>
       </c>
       <c r="F43" s="3">
-        <v>557400</v>
+        <v>537500</v>
       </c>
       <c r="G43" s="3">
-        <v>498400</v>
+        <v>480600</v>
       </c>
       <c r="H43" s="3">
-        <v>470300</v>
+        <v>453500</v>
       </c>
       <c r="I43" s="3">
-        <v>460200</v>
+        <v>443700</v>
       </c>
       <c r="J43" s="3">
-        <v>444800</v>
+        <v>428900</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62300</v>
+        <v>60100</v>
       </c>
       <c r="E44" s="3">
-        <v>60400</v>
+        <v>58300</v>
       </c>
       <c r="F44" s="3">
-        <v>46000</v>
+        <v>44300</v>
       </c>
       <c r="G44" s="3">
-        <v>49900</v>
+        <v>48100</v>
       </c>
       <c r="H44" s="3">
-        <v>45300</v>
+        <v>43700</v>
       </c>
       <c r="I44" s="3">
-        <v>45000</v>
+        <v>43400</v>
       </c>
       <c r="J44" s="3">
-        <v>36000</v>
+        <v>34700</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43200</v>
+        <v>41600</v>
       </c>
       <c r="E45" s="3">
-        <v>37700</v>
+        <v>36400</v>
       </c>
       <c r="F45" s="3">
-        <v>61300</v>
+        <v>59100</v>
       </c>
       <c r="G45" s="3">
-        <v>49400</v>
+        <v>47600</v>
       </c>
       <c r="H45" s="3">
-        <v>37100</v>
+        <v>35800</v>
       </c>
       <c r="I45" s="3">
-        <v>32900</v>
+        <v>31700</v>
       </c>
       <c r="J45" s="3">
-        <v>48800</v>
+        <v>47000</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>686200</v>
+        <v>661600</v>
       </c>
       <c r="E46" s="3">
-        <v>704100</v>
+        <v>678900</v>
       </c>
       <c r="F46" s="3">
-        <v>762900</v>
+        <v>735600</v>
       </c>
       <c r="G46" s="3">
-        <v>718400</v>
+        <v>692600</v>
       </c>
       <c r="H46" s="3">
-        <v>704000</v>
+        <v>678800</v>
       </c>
       <c r="I46" s="3">
-        <v>783800</v>
+        <v>755700</v>
       </c>
       <c r="J46" s="3">
-        <v>800000</v>
+        <v>771400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>74900</v>
+        <v>72300</v>
       </c>
       <c r="E47" s="3">
-        <v>56500</v>
+        <v>54500</v>
       </c>
       <c r="F47" s="3">
-        <v>64200</v>
+        <v>61900</v>
       </c>
       <c r="G47" s="3">
-        <v>65400</v>
+        <v>63000</v>
       </c>
       <c r="H47" s="3">
-        <v>60000</v>
+        <v>57800</v>
       </c>
       <c r="I47" s="3">
-        <v>68500</v>
+        <v>66000</v>
       </c>
       <c r="J47" s="3">
-        <v>114700</v>
+        <v>110600</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1664400</v>
+        <v>1604800</v>
       </c>
       <c r="E48" s="3">
-        <v>1759600</v>
+        <v>1696600</v>
       </c>
       <c r="F48" s="3">
-        <v>1798100</v>
+        <v>1733700</v>
       </c>
       <c r="G48" s="3">
-        <v>1773100</v>
+        <v>1709600</v>
       </c>
       <c r="H48" s="3">
-        <v>1794000</v>
+        <v>1729800</v>
       </c>
       <c r="I48" s="3">
-        <v>1854800</v>
+        <v>1788400</v>
       </c>
       <c r="J48" s="3">
-        <v>1946500</v>
+        <v>1876800</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1602500</v>
+        <v>1545100</v>
       </c>
       <c r="E49" s="3">
-        <v>1736100</v>
+        <v>1673900</v>
       </c>
       <c r="F49" s="3">
-        <v>1738200</v>
+        <v>1676000</v>
       </c>
       <c r="G49" s="3">
-        <v>1736900</v>
+        <v>1674700</v>
       </c>
       <c r="H49" s="3">
-        <v>1383800</v>
+        <v>1334200</v>
       </c>
       <c r="I49" s="3">
-        <v>1129200</v>
+        <v>1088700</v>
       </c>
       <c r="J49" s="3">
-        <v>1119200</v>
+        <v>1079100</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,7 +1807,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1780,26 +1815,26 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="F52" s="3">
-        <v>18100</v>
+        <v>17400</v>
       </c>
       <c r="G52" s="3">
-        <v>28800</v>
+        <v>27800</v>
       </c>
       <c r="H52" s="3">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="I52" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J52" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4028100</v>
+        <v>3883800</v>
       </c>
       <c r="E54" s="3">
-        <v>4267200</v>
+        <v>4114400</v>
       </c>
       <c r="F54" s="3">
-        <v>4381500</v>
+        <v>4224600</v>
       </c>
       <c r="G54" s="3">
-        <v>4322500</v>
+        <v>4167700</v>
       </c>
       <c r="H54" s="3">
-        <v>3961200</v>
+        <v>3819400</v>
       </c>
       <c r="I54" s="3">
-        <v>3840000</v>
+        <v>3702500</v>
       </c>
       <c r="J54" s="3">
-        <v>3985800</v>
+        <v>3843100</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>491700</v>
+        <v>474100</v>
       </c>
       <c r="E57" s="3">
-        <v>495900</v>
+        <v>478200</v>
       </c>
       <c r="F57" s="3">
-        <v>508900</v>
+        <v>490600</v>
       </c>
       <c r="G57" s="3">
-        <v>400600</v>
+        <v>386300</v>
       </c>
       <c r="H57" s="3">
-        <v>375900</v>
+        <v>362400</v>
       </c>
       <c r="I57" s="3">
-        <v>420100</v>
+        <v>405000</v>
       </c>
       <c r="J57" s="3">
-        <v>367100</v>
+        <v>353900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>108100</v>
+        <v>104300</v>
       </c>
       <c r="E58" s="3">
-        <v>291600</v>
+        <v>281200</v>
       </c>
       <c r="F58" s="3">
-        <v>535800</v>
+        <v>516600</v>
       </c>
       <c r="G58" s="3">
-        <v>575700</v>
+        <v>555100</v>
       </c>
       <c r="H58" s="3">
-        <v>522000</v>
+        <v>503300</v>
       </c>
       <c r="I58" s="3">
-        <v>271500</v>
+        <v>261700</v>
       </c>
       <c r="J58" s="3">
-        <v>354800</v>
+        <v>342100</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>222700</v>
+        <v>214700</v>
       </c>
       <c r="E59" s="3">
-        <v>220000</v>
+        <v>212100</v>
       </c>
       <c r="F59" s="3">
-        <v>233700</v>
+        <v>225400</v>
       </c>
       <c r="G59" s="3">
-        <v>221000</v>
+        <v>213100</v>
       </c>
       <c r="H59" s="3">
-        <v>217400</v>
+        <v>209600</v>
       </c>
       <c r="I59" s="3">
-        <v>161200</v>
+        <v>155400</v>
       </c>
       <c r="J59" s="3">
-        <v>205200</v>
+        <v>197900</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>822500</v>
+        <v>793000</v>
       </c>
       <c r="E60" s="3">
-        <v>1007500</v>
+        <v>971500</v>
       </c>
       <c r="F60" s="3">
-        <v>1278400</v>
+        <v>1232600</v>
       </c>
       <c r="G60" s="3">
-        <v>1197300</v>
+        <v>1154400</v>
       </c>
       <c r="H60" s="3">
-        <v>1115200</v>
+        <v>1075300</v>
       </c>
       <c r="I60" s="3">
-        <v>852700</v>
+        <v>822200</v>
       </c>
       <c r="J60" s="3">
-        <v>927100</v>
+        <v>893900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>833400</v>
+        <v>803500</v>
       </c>
       <c r="E61" s="3">
-        <v>897400</v>
+        <v>865200</v>
       </c>
       <c r="F61" s="3">
-        <v>812700</v>
+        <v>783600</v>
       </c>
       <c r="G61" s="3">
-        <v>910600</v>
+        <v>878000</v>
       </c>
       <c r="H61" s="3">
-        <v>900800</v>
+        <v>868500</v>
       </c>
       <c r="I61" s="3">
-        <v>967800</v>
+        <v>933200</v>
       </c>
       <c r="J61" s="3">
-        <v>900600</v>
+        <v>868300</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>266600</v>
+        <v>257000</v>
       </c>
       <c r="E62" s="3">
-        <v>252000</v>
+        <v>243000</v>
       </c>
       <c r="F62" s="3">
-        <v>312300</v>
+        <v>301100</v>
       </c>
       <c r="G62" s="3">
-        <v>311000</v>
+        <v>299900</v>
       </c>
       <c r="H62" s="3">
-        <v>168000</v>
+        <v>162000</v>
       </c>
       <c r="I62" s="3">
-        <v>124300</v>
+        <v>119800</v>
       </c>
       <c r="J62" s="3">
-        <v>139600</v>
+        <v>134600</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2041800</v>
+        <v>1968600</v>
       </c>
       <c r="E66" s="3">
-        <v>2312500</v>
+        <v>2229600</v>
       </c>
       <c r="F66" s="3">
-        <v>2565700</v>
+        <v>2473800</v>
       </c>
       <c r="G66" s="3">
-        <v>2602100</v>
+        <v>2508900</v>
       </c>
       <c r="H66" s="3">
-        <v>2373200</v>
+        <v>2288200</v>
       </c>
       <c r="I66" s="3">
-        <v>2159100</v>
+        <v>2081800</v>
       </c>
       <c r="J66" s="3">
-        <v>2214300</v>
+        <v>2135000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1438600</v>
+        <v>1387100</v>
       </c>
       <c r="E72" s="3">
-        <v>1363600</v>
+        <v>1314800</v>
       </c>
       <c r="F72" s="3">
-        <v>1223400</v>
+        <v>1179500</v>
       </c>
       <c r="G72" s="3">
-        <v>1126800</v>
+        <v>1086400</v>
       </c>
       <c r="H72" s="3">
-        <v>1022900</v>
+        <v>986300</v>
       </c>
       <c r="I72" s="3">
-        <v>1126900</v>
+        <v>1086600</v>
       </c>
       <c r="J72" s="3">
-        <v>1182300</v>
+        <v>1140000</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1986300</v>
+        <v>1915200</v>
       </c>
       <c r="E76" s="3">
-        <v>1954700</v>
+        <v>1884700</v>
       </c>
       <c r="F76" s="3">
-        <v>1815800</v>
+        <v>1750800</v>
       </c>
       <c r="G76" s="3">
-        <v>1720500</v>
+        <v>1658800</v>
       </c>
       <c r="H76" s="3">
-        <v>1588000</v>
+        <v>1531100</v>
       </c>
       <c r="I76" s="3">
-        <v>1680900</v>
+        <v>1620700</v>
       </c>
       <c r="J76" s="3">
-        <v>1771500</v>
+        <v>1708100</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169600</v>
+        <v>163500</v>
       </c>
       <c r="E81" s="3">
-        <v>197000</v>
+        <v>190000</v>
       </c>
       <c r="F81" s="3">
-        <v>100600</v>
+        <v>97000</v>
       </c>
       <c r="G81" s="3">
-        <v>103900</v>
+        <v>100100</v>
       </c>
       <c r="H81" s="3">
-        <v>85200</v>
+        <v>82100</v>
       </c>
       <c r="I81" s="3">
-        <v>133800</v>
+        <v>129000</v>
       </c>
       <c r="J81" s="3">
-        <v>-27100</v>
+        <v>-26100</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>392700</v>
+        <v>378600</v>
       </c>
       <c r="E83" s="3">
-        <v>426400</v>
+        <v>411200</v>
       </c>
       <c r="F83" s="3">
-        <v>413000</v>
+        <v>398200</v>
       </c>
       <c r="G83" s="3">
-        <v>365400</v>
+        <v>352300</v>
       </c>
       <c r="H83" s="3">
-        <v>380200</v>
+        <v>366600</v>
       </c>
       <c r="I83" s="3">
-        <v>388000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>482500</v>
+        <v>374100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>571300</v>
+        <v>550900</v>
       </c>
       <c r="E89" s="3">
-        <v>562000</v>
+        <v>541900</v>
       </c>
       <c r="F89" s="3">
-        <v>567400</v>
+        <v>547000</v>
       </c>
       <c r="G89" s="3">
-        <v>528100</v>
+        <v>509200</v>
       </c>
       <c r="H89" s="3">
-        <v>477800</v>
+        <v>460600</v>
       </c>
       <c r="I89" s="3">
-        <v>527200</v>
+        <v>508300</v>
       </c>
       <c r="J89" s="3">
-        <v>612700</v>
+        <v>590700</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-329600</v>
+        <v>-317800</v>
       </c>
       <c r="E91" s="3">
-        <v>-399000</v>
+        <v>-384700</v>
       </c>
       <c r="F91" s="3">
-        <v>-351600</v>
+        <v>-339000</v>
       </c>
       <c r="G91" s="3">
-        <v>-516000</v>
+        <v>-497500</v>
       </c>
       <c r="H91" s="3">
-        <v>-436100</v>
+        <v>-420500</v>
       </c>
       <c r="I91" s="3">
-        <v>-375000</v>
+        <v>-361600</v>
       </c>
       <c r="J91" s="3">
-        <v>-304200</v>
+        <v>-293300</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-210800</v>
+        <v>-203200</v>
       </c>
       <c r="E94" s="3">
-        <v>-323800</v>
+        <v>-312200</v>
       </c>
       <c r="F94" s="3">
-        <v>-354000</v>
+        <v>-341300</v>
       </c>
       <c r="G94" s="3">
-        <v>-473700</v>
+        <v>-456800</v>
       </c>
       <c r="H94" s="3">
-        <v>-385000</v>
+        <v>-371200</v>
       </c>
       <c r="I94" s="3">
-        <v>-264500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-282200</v>
+        <v>-255100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-106700</v>
+        <v>-102900</v>
       </c>
       <c r="E96" s="3">
-        <v>-82400</v>
+        <v>-79400</v>
       </c>
       <c r="F96" s="3">
-        <v>-24300</v>
+        <v>-23400</v>
       </c>
       <c r="G96" s="3">
-        <v>-29100</v>
+        <v>-28000</v>
       </c>
       <c r="H96" s="3">
-        <v>-237400</v>
+        <v>-228900</v>
       </c>
       <c r="I96" s="3">
-        <v>-240000</v>
+        <v>-231400</v>
       </c>
       <c r="J96" s="3">
-        <v>-234600</v>
+        <v>-226200</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,34 +2970,34 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-380100</v>
+        <v>-366500</v>
       </c>
       <c r="E100" s="3">
-        <v>-262600</v>
+        <v>-253200</v>
       </c>
       <c r="F100" s="3">
-        <v>-202500</v>
+        <v>-195200</v>
       </c>
       <c r="G100" s="3">
-        <v>-56500</v>
+        <v>-54400</v>
       </c>
       <c r="H100" s="3">
-        <v>-95500</v>
+        <v>-92100</v>
       </c>
       <c r="I100" s="3">
-        <v>-258000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-338400</v>
+        <v>-248700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2976,7 +3011,7 @@
         <v>-300</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H101" s="3">
         <v>600</v>
@@ -2984,35 +3019,35 @@
       <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
-        <v>2900</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19600</v>
+        <v>-18900</v>
       </c>
       <c r="E102" s="3">
-        <v>-24500</v>
+        <v>-23600</v>
       </c>
       <c r="F102" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="I102" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J102" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B770330-96FA-4FD9-837A-E47A63A9404F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="MYTAY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>MYTAY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2138000</v>
+        <v>2135600</v>
       </c>
       <c r="E8" s="3">
-        <v>2009100</v>
+        <v>1985300</v>
       </c>
       <c r="F8" s="3">
-        <v>2297200</v>
+        <v>1865600</v>
       </c>
       <c r="G8" s="3">
-        <v>2192600</v>
+        <v>2133100</v>
       </c>
       <c r="H8" s="3">
-        <v>2231300</v>
+        <v>2036000</v>
       </c>
       <c r="I8" s="3">
-        <v>2124900</v>
+        <v>2071900</v>
       </c>
       <c r="J8" s="3">
+        <v>1973200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2091700</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1053600</v>
+        <v>1088000</v>
       </c>
       <c r="E9" s="3">
-        <v>926700</v>
+        <v>978300</v>
       </c>
       <c r="F9" s="3">
-        <v>1043700</v>
+        <v>860500</v>
       </c>
       <c r="G9" s="3">
-        <v>751200</v>
+        <v>969100</v>
       </c>
       <c r="H9" s="3">
-        <v>797200</v>
+        <v>697600</v>
       </c>
       <c r="I9" s="3">
-        <v>678900</v>
+        <v>740300</v>
       </c>
       <c r="J9" s="3">
+        <v>630400</v>
+      </c>
+      <c r="K9" s="3">
         <v>741600</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1084400</v>
+        <v>1047600</v>
       </c>
       <c r="E10" s="3">
-        <v>1082400</v>
+        <v>1007000</v>
       </c>
       <c r="F10" s="3">
-        <v>1253500</v>
+        <v>1005100</v>
       </c>
       <c r="G10" s="3">
-        <v>1441300</v>
+        <v>1164000</v>
       </c>
       <c r="H10" s="3">
-        <v>1434100</v>
+        <v>1338400</v>
       </c>
       <c r="I10" s="3">
-        <v>1446000</v>
+        <v>1331700</v>
       </c>
       <c r="J10" s="3">
+        <v>1342700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1350000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,9 +868,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -908,42 +892,48 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>22100</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K14" s="3">
         <v>21000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>378600</v>
+        <v>375500</v>
       </c>
       <c r="E15" s="3">
-        <v>800800</v>
+        <v>351600</v>
       </c>
       <c r="F15" s="3">
-        <v>398200</v>
+        <v>743600</v>
       </c>
       <c r="G15" s="3">
-        <v>352300</v>
+        <v>369800</v>
       </c>
       <c r="H15" s="3">
-        <v>366600</v>
+        <v>327100</v>
       </c>
       <c r="I15" s="3">
-        <v>748300</v>
+        <v>340400</v>
       </c>
       <c r="J15" s="3">
+        <v>694800</v>
+      </c>
+      <c r="K15" s="3">
         <v>465200</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1866800</v>
+        <v>1885400</v>
       </c>
       <c r="E17" s="3">
-        <v>1742500</v>
+        <v>1733400</v>
       </c>
       <c r="F17" s="3">
-        <v>2039900</v>
+        <v>1618000</v>
       </c>
       <c r="G17" s="3">
-        <v>1910600</v>
+        <v>1894200</v>
       </c>
       <c r="H17" s="3">
-        <v>1969800</v>
+        <v>1774100</v>
       </c>
       <c r="I17" s="3">
-        <v>1817200</v>
+        <v>1829100</v>
       </c>
       <c r="J17" s="3">
+        <v>1687400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1870600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>271200</v>
+        <v>250200</v>
       </c>
       <c r="E18" s="3">
-        <v>266600</v>
+        <v>251800</v>
       </c>
       <c r="F18" s="3">
-        <v>257300</v>
+        <v>247600</v>
       </c>
       <c r="G18" s="3">
-        <v>282000</v>
+        <v>238900</v>
       </c>
       <c r="H18" s="3">
-        <v>261500</v>
+        <v>261900</v>
       </c>
       <c r="I18" s="3">
-        <v>307700</v>
+        <v>242800</v>
       </c>
       <c r="J18" s="3">
+        <v>285700</v>
+      </c>
+      <c r="K18" s="3">
         <v>221100</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-27200</v>
       </c>
-      <c r="E20" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-22400</v>
-      </c>
       <c r="G20" s="3">
-        <v>-20200</v>
+        <v>-20800</v>
       </c>
       <c r="H20" s="3">
-        <v>-30900</v>
+        <v>-18800</v>
       </c>
       <c r="I20" s="3">
-        <v>-15300</v>
+        <v>-28700</v>
       </c>
       <c r="J20" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-32400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>624800</v>
+        <v>615000</v>
       </c>
       <c r="E21" s="3">
-        <v>650900</v>
+        <v>580300</v>
       </c>
       <c r="F21" s="3">
-        <v>635500</v>
+        <v>604600</v>
       </c>
       <c r="G21" s="3">
-        <v>616100</v>
+        <v>590200</v>
       </c>
       <c r="H21" s="3">
-        <v>599300</v>
+        <v>572200</v>
       </c>
       <c r="I21" s="3">
-        <v>668700</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>556700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>621100</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47300</v>
+        <v>42900</v>
       </c>
       <c r="E22" s="3">
-        <v>65000</v>
+        <v>44000</v>
       </c>
       <c r="F22" s="3">
-        <v>76200</v>
+        <v>60300</v>
       </c>
       <c r="G22" s="3">
-        <v>79200</v>
+        <v>70800</v>
       </c>
       <c r="H22" s="3">
-        <v>79600</v>
+        <v>73500</v>
       </c>
       <c r="I22" s="3">
-        <v>84800</v>
+        <v>73900</v>
       </c>
       <c r="J22" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K22" s="3">
         <v>81100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>196700</v>
+        <v>194300</v>
       </c>
       <c r="E23" s="3">
-        <v>172400</v>
+        <v>182700</v>
       </c>
       <c r="F23" s="3">
-        <v>158700</v>
+        <v>160100</v>
       </c>
       <c r="G23" s="3">
-        <v>182600</v>
+        <v>147400</v>
       </c>
       <c r="H23" s="3">
-        <v>151100</v>
+        <v>169600</v>
       </c>
       <c r="I23" s="3">
-        <v>207600</v>
+        <v>140300</v>
       </c>
       <c r="J23" s="3">
+        <v>192800</v>
+      </c>
+      <c r="K23" s="3">
         <v>107500</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55900</v>
+        <v>43300</v>
       </c>
       <c r="E24" s="3">
-        <v>-17000</v>
+        <v>51900</v>
       </c>
       <c r="F24" s="3">
-        <v>48300</v>
+        <v>-15800</v>
       </c>
       <c r="G24" s="3">
-        <v>70500</v>
+        <v>44800</v>
       </c>
       <c r="H24" s="3">
-        <v>50100</v>
+        <v>65500</v>
       </c>
       <c r="I24" s="3">
-        <v>47100</v>
+        <v>46500</v>
       </c>
       <c r="J24" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K24" s="3">
         <v>96400</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>140900</v>
+        <v>151000</v>
       </c>
       <c r="E26" s="3">
-        <v>189400</v>
+        <v>130800</v>
       </c>
       <c r="F26" s="3">
-        <v>110400</v>
+        <v>175900</v>
       </c>
       <c r="G26" s="3">
-        <v>112100</v>
+        <v>102500</v>
       </c>
       <c r="H26" s="3">
-        <v>101000</v>
+        <v>104100</v>
       </c>
       <c r="I26" s="3">
-        <v>160500</v>
+        <v>93800</v>
       </c>
       <c r="J26" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K26" s="3">
         <v>11100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>130200</v>
+        <v>140800</v>
       </c>
       <c r="E27" s="3">
-        <v>179100</v>
+        <v>120900</v>
       </c>
       <c r="F27" s="3">
-        <v>97000</v>
+        <v>166300</v>
       </c>
       <c r="G27" s="3">
-        <v>100100</v>
+        <v>90100</v>
       </c>
       <c r="H27" s="3">
-        <v>82100</v>
+        <v>93000</v>
       </c>
       <c r="I27" s="3">
-        <v>129000</v>
+        <v>76200</v>
       </c>
       <c r="J27" s="3">
+        <v>119800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-26100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,20 +1283,23 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>33300</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>10900</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>31000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>10100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F32" s="3">
         <v>27200</v>
       </c>
-      <c r="E32" s="3">
-        <v>29300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>22400</v>
-      </c>
       <c r="G32" s="3">
-        <v>20200</v>
+        <v>20800</v>
       </c>
       <c r="H32" s="3">
-        <v>30900</v>
+        <v>18800</v>
       </c>
       <c r="I32" s="3">
-        <v>15300</v>
+        <v>28700</v>
       </c>
       <c r="J32" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K32" s="3">
         <v>32400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>163500</v>
+        <v>140800</v>
       </c>
       <c r="E33" s="3">
-        <v>190000</v>
+        <v>151900</v>
       </c>
       <c r="F33" s="3">
-        <v>97000</v>
+        <v>176400</v>
       </c>
       <c r="G33" s="3">
-        <v>100100</v>
+        <v>90100</v>
       </c>
       <c r="H33" s="3">
-        <v>82100</v>
+        <v>93000</v>
       </c>
       <c r="I33" s="3">
-        <v>129000</v>
+        <v>76200</v>
       </c>
       <c r="J33" s="3">
+        <v>119800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-26100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>163500</v>
+        <v>140800</v>
       </c>
       <c r="E35" s="3">
-        <v>190000</v>
+        <v>151900</v>
       </c>
       <c r="F35" s="3">
-        <v>97000</v>
+        <v>176400</v>
       </c>
       <c r="G35" s="3">
-        <v>100100</v>
+        <v>90100</v>
       </c>
       <c r="H35" s="3">
-        <v>82100</v>
+        <v>93000</v>
       </c>
       <c r="I35" s="3">
-        <v>129000</v>
+        <v>76200</v>
       </c>
       <c r="J35" s="3">
+        <v>119800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-26100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31200</v>
+        <v>36100</v>
       </c>
       <c r="E41" s="3">
-        <v>41100</v>
+        <v>29000</v>
       </c>
       <c r="F41" s="3">
-        <v>89400</v>
+        <v>38200</v>
       </c>
       <c r="G41" s="3">
-        <v>103100</v>
+        <v>83000</v>
       </c>
       <c r="H41" s="3">
-        <v>133800</v>
+        <v>95700</v>
       </c>
       <c r="I41" s="3">
-        <v>53200</v>
+        <v>124200</v>
       </c>
       <c r="J41" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K41" s="3">
         <v>50600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3800</v>
+        <v>23800</v>
       </c>
       <c r="E42" s="3">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="F42" s="3">
-        <v>5400</v>
+        <v>4100</v>
       </c>
       <c r="G42" s="3">
-        <v>13300</v>
+        <v>5000</v>
       </c>
       <c r="H42" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="I42" s="3">
-        <v>183700</v>
+        <v>11200</v>
       </c>
       <c r="J42" s="3">
+        <v>170500</v>
+      </c>
+      <c r="K42" s="3">
         <v>210200</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>524800</v>
+        <v>636600</v>
       </c>
       <c r="E43" s="3">
-        <v>538800</v>
+        <v>487300</v>
       </c>
       <c r="F43" s="3">
-        <v>537500</v>
+        <v>500300</v>
       </c>
       <c r="G43" s="3">
-        <v>480600</v>
+        <v>499100</v>
       </c>
       <c r="H43" s="3">
-        <v>453500</v>
+        <v>446200</v>
       </c>
       <c r="I43" s="3">
-        <v>443700</v>
+        <v>421100</v>
       </c>
       <c r="J43" s="3">
+        <v>412000</v>
+      </c>
+      <c r="K43" s="3">
         <v>428900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>60100</v>
+        <v>62100</v>
       </c>
       <c r="E44" s="3">
-        <v>58300</v>
+        <v>55800</v>
       </c>
       <c r="F44" s="3">
-        <v>44300</v>
+        <v>54100</v>
       </c>
       <c r="G44" s="3">
-        <v>48100</v>
+        <v>41200</v>
       </c>
       <c r="H44" s="3">
-        <v>43700</v>
+        <v>44700</v>
       </c>
       <c r="I44" s="3">
-        <v>43400</v>
+        <v>40600</v>
       </c>
       <c r="J44" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K44" s="3">
         <v>34700</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41600</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>36400</v>
+        <v>38700</v>
       </c>
       <c r="F45" s="3">
-        <v>59100</v>
+        <v>33800</v>
       </c>
       <c r="G45" s="3">
-        <v>47600</v>
+        <v>54900</v>
       </c>
       <c r="H45" s="3">
-        <v>35800</v>
+        <v>44200</v>
       </c>
       <c r="I45" s="3">
-        <v>31700</v>
+        <v>33200</v>
       </c>
       <c r="J45" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K45" s="3">
         <v>47000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>661600</v>
+        <v>758600</v>
       </c>
       <c r="E46" s="3">
-        <v>678900</v>
+        <v>614300</v>
       </c>
       <c r="F46" s="3">
-        <v>735600</v>
+        <v>630400</v>
       </c>
       <c r="G46" s="3">
-        <v>692600</v>
+        <v>683100</v>
       </c>
       <c r="H46" s="3">
-        <v>678800</v>
+        <v>643200</v>
       </c>
       <c r="I46" s="3">
-        <v>755700</v>
+        <v>630300</v>
       </c>
       <c r="J46" s="3">
+        <v>701700</v>
+      </c>
+      <c r="K46" s="3">
         <v>771400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>72300</v>
+        <v>82400</v>
       </c>
       <c r="E47" s="3">
-        <v>54500</v>
+        <v>67100</v>
       </c>
       <c r="F47" s="3">
-        <v>61900</v>
+        <v>50600</v>
       </c>
       <c r="G47" s="3">
-        <v>63000</v>
+        <v>57400</v>
       </c>
       <c r="H47" s="3">
-        <v>57800</v>
+        <v>58500</v>
       </c>
       <c r="I47" s="3">
-        <v>66000</v>
+        <v>53700</v>
       </c>
       <c r="J47" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K47" s="3">
         <v>110600</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1604800</v>
+        <v>1440200</v>
       </c>
       <c r="E48" s="3">
-        <v>1696600</v>
+        <v>1490100</v>
       </c>
       <c r="F48" s="3">
-        <v>1733700</v>
+        <v>1575400</v>
       </c>
       <c r="G48" s="3">
-        <v>1709600</v>
+        <v>1609900</v>
       </c>
       <c r="H48" s="3">
-        <v>1729800</v>
+        <v>1587400</v>
       </c>
       <c r="I48" s="3">
-        <v>1788400</v>
+        <v>1606200</v>
       </c>
       <c r="J48" s="3">
+        <v>1660600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1876800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1545100</v>
+        <v>1455800</v>
       </c>
       <c r="E49" s="3">
-        <v>1673900</v>
+        <v>1434700</v>
       </c>
       <c r="F49" s="3">
-        <v>1676000</v>
+        <v>1554400</v>
       </c>
       <c r="G49" s="3">
-        <v>1674700</v>
+        <v>1556200</v>
       </c>
       <c r="H49" s="3">
-        <v>1334200</v>
+        <v>1555100</v>
       </c>
       <c r="I49" s="3">
-        <v>1088700</v>
+        <v>1238900</v>
       </c>
       <c r="J49" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1079100</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>10500</v>
-      </c>
       <c r="F52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>16200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>25800</v>
+      </c>
+      <c r="I52" s="3">
         <v>17400</v>
       </c>
-      <c r="G52" s="3">
-        <v>27800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>18800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3600</v>
-      </c>
       <c r="J52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3883800</v>
+        <v>3757000</v>
       </c>
       <c r="E54" s="3">
-        <v>4114400</v>
+        <v>3606400</v>
       </c>
       <c r="F54" s="3">
-        <v>4224600</v>
+        <v>3820500</v>
       </c>
       <c r="G54" s="3">
-        <v>4167700</v>
+        <v>3922800</v>
       </c>
       <c r="H54" s="3">
-        <v>3819400</v>
+        <v>3870000</v>
       </c>
       <c r="I54" s="3">
-        <v>3702500</v>
+        <v>3546600</v>
       </c>
       <c r="J54" s="3">
+        <v>3438000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3843100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>474100</v>
+        <v>569800</v>
       </c>
       <c r="E57" s="3">
-        <v>478200</v>
+        <v>440200</v>
       </c>
       <c r="F57" s="3">
-        <v>490600</v>
+        <v>444000</v>
       </c>
       <c r="G57" s="3">
-        <v>386300</v>
+        <v>455600</v>
       </c>
       <c r="H57" s="3">
-        <v>362400</v>
+        <v>358700</v>
       </c>
       <c r="I57" s="3">
-        <v>405000</v>
+        <v>336500</v>
       </c>
       <c r="J57" s="3">
+        <v>376100</v>
+      </c>
+      <c r="K57" s="3">
         <v>353900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>104300</v>
+        <v>344100</v>
       </c>
       <c r="E58" s="3">
-        <v>281200</v>
+        <v>96800</v>
       </c>
       <c r="F58" s="3">
-        <v>516600</v>
+        <v>261100</v>
       </c>
       <c r="G58" s="3">
-        <v>555100</v>
+        <v>479700</v>
       </c>
       <c r="H58" s="3">
-        <v>503300</v>
+        <v>515400</v>
       </c>
       <c r="I58" s="3">
-        <v>261700</v>
+        <v>467300</v>
       </c>
       <c r="J58" s="3">
+        <v>243000</v>
+      </c>
+      <c r="K58" s="3">
         <v>342100</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>214700</v>
+        <v>193900</v>
       </c>
       <c r="E59" s="3">
-        <v>212100</v>
+        <v>199400</v>
       </c>
       <c r="F59" s="3">
-        <v>225400</v>
+        <v>197000</v>
       </c>
       <c r="G59" s="3">
-        <v>213100</v>
+        <v>209300</v>
       </c>
       <c r="H59" s="3">
-        <v>209600</v>
+        <v>197900</v>
       </c>
       <c r="I59" s="3">
-        <v>155400</v>
+        <v>194600</v>
       </c>
       <c r="J59" s="3">
+        <v>144300</v>
+      </c>
+      <c r="K59" s="3">
         <v>197900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>793000</v>
+        <v>1107700</v>
       </c>
       <c r="E60" s="3">
-        <v>971500</v>
+        <v>736400</v>
       </c>
       <c r="F60" s="3">
-        <v>1232600</v>
+        <v>902100</v>
       </c>
       <c r="G60" s="3">
-        <v>1154400</v>
+        <v>1144600</v>
       </c>
       <c r="H60" s="3">
-        <v>1075300</v>
+        <v>1072000</v>
       </c>
       <c r="I60" s="3">
-        <v>822200</v>
+        <v>998500</v>
       </c>
       <c r="J60" s="3">
+        <v>763400</v>
+      </c>
+      <c r="K60" s="3">
         <v>893900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>803500</v>
+        <v>409400</v>
       </c>
       <c r="E61" s="3">
-        <v>865200</v>
+        <v>746100</v>
       </c>
       <c r="F61" s="3">
-        <v>783600</v>
+        <v>803400</v>
       </c>
       <c r="G61" s="3">
-        <v>878000</v>
+        <v>727600</v>
       </c>
       <c r="H61" s="3">
-        <v>868500</v>
+        <v>815300</v>
       </c>
       <c r="I61" s="3">
-        <v>933200</v>
+        <v>806500</v>
       </c>
       <c r="J61" s="3">
+        <v>866500</v>
+      </c>
+      <c r="K61" s="3">
         <v>868300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>257000</v>
+        <v>241400</v>
       </c>
       <c r="E62" s="3">
-        <v>243000</v>
+        <v>238700</v>
       </c>
       <c r="F62" s="3">
-        <v>301100</v>
+        <v>225600</v>
       </c>
       <c r="G62" s="3">
-        <v>299900</v>
+        <v>279600</v>
       </c>
       <c r="H62" s="3">
-        <v>162000</v>
+        <v>278500</v>
       </c>
       <c r="I62" s="3">
-        <v>119800</v>
+        <v>150500</v>
       </c>
       <c r="J62" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K62" s="3">
         <v>134600</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1968600</v>
+        <v>1870400</v>
       </c>
       <c r="E66" s="3">
-        <v>2229600</v>
+        <v>1828000</v>
       </c>
       <c r="F66" s="3">
-        <v>2473800</v>
+        <v>2070400</v>
       </c>
       <c r="G66" s="3">
-        <v>2508900</v>
+        <v>2297100</v>
       </c>
       <c r="H66" s="3">
-        <v>2288200</v>
+        <v>2329700</v>
       </c>
       <c r="I66" s="3">
-        <v>2081800</v>
+        <v>2124800</v>
       </c>
       <c r="J66" s="3">
+        <v>1933100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2135000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1387100</v>
+        <v>1395200</v>
       </c>
       <c r="E72" s="3">
-        <v>1314800</v>
+        <v>1288000</v>
       </c>
       <c r="F72" s="3">
-        <v>1179500</v>
+        <v>1220900</v>
       </c>
       <c r="G72" s="3">
-        <v>1086400</v>
+        <v>1095300</v>
       </c>
       <c r="H72" s="3">
-        <v>986300</v>
+        <v>1008800</v>
       </c>
       <c r="I72" s="3">
-        <v>1086600</v>
+        <v>915800</v>
       </c>
       <c r="J72" s="3">
+        <v>1009000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1140000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1915200</v>
+        <v>1886600</v>
       </c>
       <c r="E76" s="3">
-        <v>1884700</v>
+        <v>1778400</v>
       </c>
       <c r="F76" s="3">
-        <v>1750800</v>
+        <v>1750100</v>
       </c>
       <c r="G76" s="3">
-        <v>1658800</v>
+        <v>1625700</v>
       </c>
       <c r="H76" s="3">
-        <v>1531100</v>
+        <v>1540400</v>
       </c>
       <c r="I76" s="3">
-        <v>1620700</v>
+        <v>1421800</v>
       </c>
       <c r="J76" s="3">
+        <v>1504900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1708100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>163500</v>
+        <v>140800</v>
       </c>
       <c r="E81" s="3">
-        <v>190000</v>
+        <v>151900</v>
       </c>
       <c r="F81" s="3">
-        <v>97000</v>
+        <v>176400</v>
       </c>
       <c r="G81" s="3">
-        <v>100100</v>
+        <v>90100</v>
       </c>
       <c r="H81" s="3">
-        <v>82100</v>
+        <v>93000</v>
       </c>
       <c r="I81" s="3">
-        <v>129000</v>
+        <v>76200</v>
       </c>
       <c r="J81" s="3">
+        <v>119800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-26100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>378600</v>
+        <v>375500</v>
       </c>
       <c r="E83" s="3">
-        <v>411200</v>
+        <v>351600</v>
       </c>
       <c r="F83" s="3">
-        <v>398200</v>
+        <v>381800</v>
       </c>
       <c r="G83" s="3">
-        <v>352300</v>
+        <v>369800</v>
       </c>
       <c r="H83" s="3">
-        <v>366600</v>
+        <v>327100</v>
       </c>
       <c r="I83" s="3">
-        <v>374100</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>340400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>347400</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>550900</v>
+        <v>517100</v>
       </c>
       <c r="E89" s="3">
-        <v>541900</v>
+        <v>511500</v>
       </c>
       <c r="F89" s="3">
-        <v>547000</v>
+        <v>503200</v>
       </c>
       <c r="G89" s="3">
-        <v>509200</v>
+        <v>508000</v>
       </c>
       <c r="H89" s="3">
-        <v>460600</v>
+        <v>472900</v>
       </c>
       <c r="I89" s="3">
-        <v>508300</v>
+        <v>427700</v>
       </c>
       <c r="J89" s="3">
+        <v>472000</v>
+      </c>
+      <c r="K89" s="3">
         <v>590700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-317800</v>
+        <v>-304500</v>
       </c>
       <c r="E91" s="3">
-        <v>-384700</v>
+        <v>-295100</v>
       </c>
       <c r="F91" s="3">
-        <v>-339000</v>
+        <v>-357200</v>
       </c>
       <c r="G91" s="3">
-        <v>-497500</v>
+        <v>-314800</v>
       </c>
       <c r="H91" s="3">
-        <v>-420500</v>
+        <v>-462000</v>
       </c>
       <c r="I91" s="3">
-        <v>-361600</v>
+        <v>-390400</v>
       </c>
       <c r="J91" s="3">
+        <v>-335800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-293300</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-203200</v>
+        <v>-270000</v>
       </c>
       <c r="E94" s="3">
-        <v>-312200</v>
+        <v>-188700</v>
       </c>
       <c r="F94" s="3">
-        <v>-341300</v>
+        <v>-289900</v>
       </c>
       <c r="G94" s="3">
-        <v>-456800</v>
+        <v>-316900</v>
       </c>
       <c r="H94" s="3">
-        <v>-371200</v>
+        <v>-424100</v>
       </c>
       <c r="I94" s="3">
-        <v>-255100</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-344700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-236800</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-102900</v>
+        <v>-96000</v>
       </c>
       <c r="E96" s="3">
-        <v>-79400</v>
+        <v>-95600</v>
       </c>
       <c r="F96" s="3">
-        <v>-23400</v>
+        <v>-73700</v>
       </c>
       <c r="G96" s="3">
-        <v>-28000</v>
+        <v>-21700</v>
       </c>
       <c r="H96" s="3">
-        <v>-228900</v>
+        <v>-26000</v>
       </c>
       <c r="I96" s="3">
-        <v>-231400</v>
+        <v>-212600</v>
       </c>
       <c r="J96" s="3">
+        <v>-214800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-226200</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-366500</v>
+        <v>-241600</v>
       </c>
       <c r="E100" s="3">
-        <v>-253200</v>
+        <v>-340300</v>
       </c>
       <c r="F100" s="3">
-        <v>-195200</v>
+        <v>-235100</v>
       </c>
       <c r="G100" s="3">
-        <v>-54400</v>
+        <v>-181300</v>
       </c>
       <c r="H100" s="3">
-        <v>-92100</v>
+        <v>-50500</v>
       </c>
       <c r="I100" s="3">
-        <v>-248700</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-85500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-231000</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>1900</v>
-      </c>
       <c r="H101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-18900</v>
+        <v>5900</v>
       </c>
       <c r="E102" s="3">
-        <v>-23600</v>
+        <v>-17600</v>
       </c>
       <c r="F102" s="3">
-        <v>10300</v>
+        <v>-21900</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="H102" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>2700</v>
+        <v>-1900</v>
       </c>
       <c r="J102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
